--- a/Bioinformatics/Samples_RNAsep1.xlsx
+++ b/Bioinformatics/Samples_RNAsep1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A6DBFE-C20F-6A41-9F4F-603F918319E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$G$6:$G$86</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -707,18 +721,6 @@
     <t>Nb_reads (million)</t>
   </si>
   <si>
-    <t>Echantillon absent</t>
-  </si>
-  <si>
-    <t>Echantillon corrompu</t>
-  </si>
-  <si>
-    <t>R1 et R2 sur 2 runs différents</t>
-  </si>
-  <si>
-    <t>Seulement R2 disponible</t>
-  </si>
-  <si>
     <t>Trimming</t>
   </si>
   <si>
@@ -726,12 +728,24 @@
   </si>
   <si>
     <t>PE_remaining</t>
+  </si>
+  <si>
+    <t>Missing sample</t>
+  </si>
+  <si>
+    <t>Corrupted sample</t>
+  </si>
+  <si>
+    <t>R1 et R2 from 2 different runs</t>
+  </si>
+  <si>
+    <t>Missing R1 only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,13 +906,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -910,29 +924,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,33 +948,25 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,29 +979,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1013,20 +996,19 @@
     <xf numFmtId="4" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,9 +1029,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1087,9 +1069,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,7 +1106,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1159,7 +1141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1332,2642 +1314,2295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.90625" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="29" t="s">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="C5" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="H6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="30" t="s">
+      <c r="I6" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C5" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="7"/>
-      <c r="C6" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
-      <c r="C7" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="24">
-        <v>1</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="I9" s="30">
+        <v>7090738</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" s="45">
-        <v>7090738</v>
-      </c>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="24">
-        <v>2</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="H10" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" s="30">
+        <v>6990608</v>
+      </c>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" s="45">
-        <v>6990608</v>
-      </c>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I11"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="24">
+    <row r="12" spans="1:13" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>3</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I12" s="45">
+      <c r="H12" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" s="30">
         <v>5774224</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="45">
+      <c r="J12" s="20"/>
+      <c r="K12" s="30">
         <f>AVERAGE(I9:I84)</f>
         <v>6630239.194444444</v>
       </c>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="7" t="s">
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="24">
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>4</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I14" s="45">
+      <c r="H14" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" s="30">
         <v>6614731</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="45">
+      <c r="J14" s="20"/>
+      <c r="K14" s="30">
         <f>SUM(I9:I84)</f>
         <v>238688611</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="24">
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>5</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I16" s="45">
+      <c r="H16" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="30">
         <v>7611600</v>
       </c>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="7" t="s">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="24">
+    <row r="18" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>6</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="45">
+      <c r="H18" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="30">
         <v>6810042</v>
       </c>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="7" t="s">
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="24">
+    <row r="20" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>7</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I20" s="45">
+      <c r="H20" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I20" s="30">
         <v>6112968</v>
       </c>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="7" t="s">
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24">
+    <row r="22" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>8</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I22" s="45">
+      <c r="H22" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I22" s="30">
         <v>10524113</v>
       </c>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="7" t="s">
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="24">
+    <row r="24" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>9</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I24" s="45">
+      <c r="H24" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I24" s="30">
         <v>7208739</v>
       </c>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="7" t="s">
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="24">
+    <row r="26" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>10</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="I26" s="45">
+      <c r="H26" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I26" s="30">
         <v>6297477</v>
       </c>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="39" t="s">
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H27" s="28"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="24">
+    <row r="28" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>11</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I28" s="45">
+      <c r="H28" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I28" s="30">
         <v>6739482</v>
       </c>
-      <c r="J28" s="25"/>
-    </row>
-    <row r="29" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="24">
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
         <v>12</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" s="45">
+      <c r="H29" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29" s="30">
         <v>6849404</v>
       </c>
-      <c r="J29" s="25"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="7" t="s">
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="11" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="7"/>
-      <c r="C33" s="53" t="s">
+    <row r="33" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G34" s="9"/>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="24">
+    <row r="35" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
         <v>13</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H35" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I35" s="45">
+      <c r="H35" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="30">
         <v>8109073</v>
       </c>
-      <c r="J35" s="25"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="7" t="s">
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="24">
+    <row r="37" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
         <v>14</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H37" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I37" s="45">
+      <c r="H37" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" s="30">
         <v>7502839</v>
       </c>
-      <c r="J37" s="25"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="7" t="s">
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="24">
+    <row r="39" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
         <v>15</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H39" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I39" s="45">
+      <c r="H39" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I39" s="30">
         <v>6278820</v>
       </c>
-      <c r="J39" s="25"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="7" t="s">
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="24">
+    <row r="41" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
         <v>16</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H41" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I41" s="45">
+      <c r="H41" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I41" s="30">
         <v>6904610</v>
       </c>
-      <c r="J41" s="25"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="7" t="s">
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="11" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="24">
+    <row r="43" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
         <v>17</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H43" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I43" s="45">
+      <c r="H43" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" s="30">
         <v>6392162</v>
       </c>
-      <c r="J43" s="25"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="7" t="s">
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="24">
+    <row r="45" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <v>18</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H45" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I45" s="45">
+      <c r="H45" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I45" s="30">
         <v>6286856</v>
       </c>
-      <c r="J45" s="25"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="7" t="s">
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="24">
+    <row r="47" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>19</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H47" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I47" s="45">
+      <c r="H47" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I47" s="30">
         <v>6753411</v>
       </c>
-      <c r="J47" s="25"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="7" t="s">
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="12" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="24">
+    <row r="49" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
         <v>20</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="G49" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H49" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="45">
+      <c r="H49" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I49" s="30">
         <v>5900585</v>
       </c>
-      <c r="J49" s="25"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="7" t="s">
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="12" t="s">
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="24">
+    <row r="51" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
         <v>21</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="H51" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51" s="45">
+      <c r="H51" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I51" s="30">
         <v>7848155</v>
       </c>
-      <c r="J51" s="25"/>
-    </row>
-    <row r="52" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="24">
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
         <v>22</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H52" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I52" s="45">
+      <c r="H52" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I52" s="30">
         <v>6837461</v>
       </c>
-      <c r="J52" s="25"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="7" t="s">
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="24">
+    <row r="54" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
         <v>23</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="F54" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H54" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="I54" s="45">
+      <c r="H54" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I54" s="30">
         <v>6901680</v>
       </c>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="39" t="s">
+    <row r="55" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="12" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H55" s="28"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="24">
+    <row r="56" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
         <v>24</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H56" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I56" s="46">
+      <c r="H56" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I56" s="31">
         <v>6643431</v>
       </c>
-      <c r="J56" s="25"/>
-    </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="7" t="s">
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="9"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I59" s="5"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="7"/>
-      <c r="C60" s="52" t="s">
+    <row r="60" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
       <c r="I60" s="5"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="7"/>
-      <c r="C61" s="10" t="s">
+    <row r="61" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="9"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="24">
+    <row r="62" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
         <v>25</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H62" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I62" s="46">
+      <c r="H62" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I62" s="31">
         <v>6241591</v>
       </c>
-      <c r="J62" s="25"/>
-    </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="7" t="s">
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>157</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12" t="s">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="24">
+    <row r="64" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
         <v>26</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H64" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I64" s="46">
+      <c r="H64" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I64" s="31">
         <v>5888898</v>
       </c>
-      <c r="J64" s="25"/>
-    </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="7" t="s">
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="24">
+    <row r="66" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
         <v>27</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H66" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I66" s="46">
+      <c r="H66" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I66" s="31">
         <v>5693053</v>
       </c>
-      <c r="J66" s="25"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="7" t="s">
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="24">
+    <row r="68" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
         <v>28</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G68" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H68" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I68" s="46">
+      <c r="H68" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68" s="31">
         <v>5486243</v>
       </c>
-      <c r="J68" s="25"/>
-    </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="7" t="s">
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="12" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="24">
+    <row r="70" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
         <v>29</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="F70" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G70" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H70" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I70" s="46">
+      <c r="H70" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I70" s="31">
         <v>5057357</v>
       </c>
-      <c r="J70" s="25"/>
-    </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="7" t="s">
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14" t="s">
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="11" t="s">
+      <c r="F71" s="9"/>
+      <c r="G71" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="24">
+    <row r="72" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
         <v>30</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G72" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H72" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I72" s="46">
+      <c r="H72" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I72" s="31">
         <v>5866448</v>
       </c>
-      <c r="J72" s="25"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="7" t="s">
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="24">
+    <row r="74" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
         <v>31</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H74" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I74" s="46">
+      <c r="H74" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I74" s="31">
         <v>6669935</v>
       </c>
-      <c r="J74" s="25"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="7" t="s">
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>165</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="24">
+    <row r="76" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
         <v>32</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="F76" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="G76" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H76" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I76" s="46">
+      <c r="H76" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I76" s="31">
         <v>5985732</v>
       </c>
-      <c r="J76" s="25"/>
-    </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="7" t="s">
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="12" t="s">
+      <c r="D77" s="11"/>
+      <c r="E77" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="24">
+    <row r="78" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
         <v>33</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E78" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H78" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I78" s="46">
+      <c r="H78" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I78" s="31">
         <v>6145087</v>
       </c>
-      <c r="J78" s="25"/>
-    </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="7" t="s">
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="F79" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="24">
+    <row r="80" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
         <v>34</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="G80" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H80" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I80" s="46">
+      <c r="H80" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I80" s="31">
         <v>6274678</v>
       </c>
-      <c r="J80" s="25"/>
-    </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="7" t="s">
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="24">
+    <row r="82" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
         <v>35</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E82" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="F82" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="G82" s="26" t="s">
+      <c r="G82" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H82" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I82" s="46">
+      <c r="H82" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I82" s="31">
         <v>6636181</v>
       </c>
-      <c r="J82" s="25"/>
-    </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="7" t="s">
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="24">
+    <row r="84" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
         <v>36</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="G84" s="26" t="s">
+      <c r="G84" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H84" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I84" s="46">
+      <c r="H84" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I84" s="31">
         <v>5760199</v>
       </c>
-      <c r="J84" s="25"/>
-    </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="7" t="s">
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="7" t="s">
+    <row r="86" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="9"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I87" s="47"/>
+    <row r="87" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="32"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="48"/>
+    <row r="88" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="33"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="48"/>
+    <row r="89" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="33"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C90" s="33"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="48"/>
+    <row r="90" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="9"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="26"/>
+      <c r="I90" s="33"/>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C91" s="33"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="48"/>
+    <row r="91" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="9"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="26"/>
+      <c r="I91" s="33"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C92" s="33"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="48"/>
+    <row r="92" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="9"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="26"/>
+      <c r="I92" s="33"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C93" s="33"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="48"/>
+    <row r="93" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="9"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="26"/>
+      <c r="I93" s="33"/>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C94" s="33"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="48"/>
+    <row r="94" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="9"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="26"/>
+      <c r="I94" s="33"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C95" s="33"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="48"/>
+    <row r="95" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="9"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="26"/>
+      <c r="I95" s="33"/>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C96" s="33"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="48"/>
+    <row r="96" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="9"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="26"/>
+      <c r="I96" s="33"/>
       <c r="J96" s="6"/>
     </row>
-    <row r="97" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C97" s="33"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="48"/>
+    <row r="97" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="9"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="26"/>
+      <c r="I97" s="33"/>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C98" s="33"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="48"/>
+    <row r="98" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="9"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="26"/>
+      <c r="I98" s="33"/>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C99" s="33"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="48"/>
+    <row r="99" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="26"/>
+      <c r="I99" s="33"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C100" s="33"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="48"/>
+    <row r="100" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="9"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="26"/>
+      <c r="I100" s="33"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C101" s="33"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="48"/>
+    <row r="101" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="9"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="26"/>
+      <c r="I101" s="33"/>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C102" s="33"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="49"/>
-    </row>
-    <row r="103" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C103" s="33"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="49"/>
-    </row>
-    <row r="104" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C104" s="33"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="49"/>
-    </row>
-    <row r="105" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C105" s="33"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="49"/>
-    </row>
-    <row r="106" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C106" s="33"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="49"/>
-    </row>
-    <row r="107" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C107" s="33"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="49"/>
-    </row>
-    <row r="108" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C108" s="33"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="49"/>
-    </row>
-    <row r="109" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C109" s="33"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="49"/>
-    </row>
-    <row r="110" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C110" s="33"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="49"/>
-    </row>
-    <row r="111" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C111" s="33"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="49"/>
-    </row>
-    <row r="112" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C112" s="33"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="49"/>
-    </row>
-    <row r="113" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C113" s="33"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="49"/>
-    </row>
-    <row r="114" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C114" s="33"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="49"/>
-    </row>
-    <row r="115" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C115" s="33"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="49"/>
-    </row>
-    <row r="116" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C116" s="33"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="49"/>
-    </row>
-    <row r="117" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C117" s="33"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="49"/>
-    </row>
-    <row r="118" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C118" s="33"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="49"/>
-    </row>
-    <row r="119" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C119" s="33"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="36"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="49"/>
-    </row>
-    <row r="120" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C120" s="33"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="49"/>
-    </row>
-    <row r="121" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C121" s="33"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="49"/>
-    </row>
-    <row r="122" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C122" s="33"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="49"/>
-    </row>
-    <row r="123" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C123" s="33"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="49"/>
-    </row>
-    <row r="124" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C124" s="33"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="49"/>
-    </row>
-    <row r="125" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C125" s="33"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="34"/>
-      <c r="I125" s="49"/>
-    </row>
-    <row r="126" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="49"/>
-    </row>
-    <row r="127" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="49"/>
-    </row>
-    <row r="128" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="49"/>
-    </row>
-    <row r="129" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="49"/>
-    </row>
-    <row r="130" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="34"/>
-      <c r="I130" s="49"/>
-    </row>
-    <row r="131" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="49"/>
-    </row>
-    <row r="132" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="49"/>
-    </row>
-    <row r="133" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="49"/>
-    </row>
-    <row r="134" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="49"/>
-    </row>
-    <row r="135" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="34"/>
-      <c r="I135" s="49"/>
-    </row>
-    <row r="136" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="49"/>
-    </row>
-    <row r="137" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="49"/>
-    </row>
-    <row r="138" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="34"/>
-      <c r="I138" s="49"/>
-    </row>
-    <row r="139" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="36"/>
-      <c r="H139" s="34"/>
-      <c r="I139" s="49"/>
-    </row>
-    <row r="140" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="49"/>
-    </row>
-    <row r="141" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="49"/>
-    </row>
-    <row r="142" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="34"/>
-      <c r="I142" s="49"/>
-    </row>
-    <row r="143" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="49"/>
-    </row>
-    <row r="144" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="34"/>
-      <c r="I144" s="49"/>
-    </row>
-    <row r="145" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="49"/>
-    </row>
-    <row r="146" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="49"/>
-    </row>
-    <row r="147" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="49"/>
-    </row>
-    <row r="148" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="49"/>
-    </row>
-    <row r="149" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="36"/>
-      <c r="H149" s="34"/>
-      <c r="I149" s="49"/>
-    </row>
-    <row r="150" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="34"/>
-      <c r="I150" s="49"/>
-    </row>
-    <row r="151" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="34"/>
-      <c r="I151" s="49"/>
-    </row>
-    <row r="152" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="49"/>
-    </row>
-    <row r="153" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="36"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="49"/>
-    </row>
-    <row r="154" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="49"/>
-    </row>
-    <row r="155" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="34"/>
-      <c r="I155" s="49"/>
-    </row>
-    <row r="156" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="49"/>
-    </row>
-    <row r="157" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="34"/>
-      <c r="I157" s="49"/>
-    </row>
-    <row r="158" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="34"/>
-      <c r="I158" s="49"/>
-    </row>
-    <row r="159" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="34"/>
-      <c r="I159" s="49"/>
-    </row>
-    <row r="160" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="34"/>
-      <c r="I160" s="49"/>
+    <row r="102" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="9"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="26"/>
+    </row>
+    <row r="103" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="9"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="26"/>
+    </row>
+    <row r="104" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="9"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="26"/>
+    </row>
+    <row r="105" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="9"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="26"/>
+    </row>
+    <row r="106" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="9"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="26"/>
+    </row>
+    <row r="107" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="9"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="26"/>
+    </row>
+    <row r="108" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="9"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="26"/>
+    </row>
+    <row r="109" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="9"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="26"/>
+    </row>
+    <row r="110" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="9"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="26"/>
+    </row>
+    <row r="111" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="9"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="26"/>
+    </row>
+    <row r="112" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="9"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="26"/>
+    </row>
+    <row r="113" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="9"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="26"/>
+    </row>
+    <row r="114" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="9"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="26"/>
+    </row>
+    <row r="115" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="9"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="26"/>
+    </row>
+    <row r="116" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="9"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="26"/>
+    </row>
+    <row r="117" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="9"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="26"/>
+    </row>
+    <row r="118" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="9"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="26"/>
+    </row>
+    <row r="119" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="9"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="26"/>
+    </row>
+    <row r="120" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D120" s="9"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="26"/>
+    </row>
+    <row r="121" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="9"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="26"/>
+    </row>
+    <row r="122" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D122" s="9"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="26"/>
+    </row>
+    <row r="123" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="9"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="26"/>
+    </row>
+    <row r="124" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="9"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="26"/>
+    </row>
+    <row r="125" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="9"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="26"/>
+    </row>
+    <row r="126" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G126" s="26"/>
+    </row>
+    <row r="127" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G127" s="26"/>
+    </row>
+    <row r="128" spans="4:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G128" s="26"/>
+    </row>
+    <row r="129" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G129" s="26"/>
+    </row>
+    <row r="130" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G130" s="26"/>
+    </row>
+    <row r="131" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="26"/>
+    </row>
+    <row r="132" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="26"/>
+    </row>
+    <row r="133" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="26"/>
+    </row>
+    <row r="134" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="26"/>
+    </row>
+    <row r="135" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G135" s="26"/>
+    </row>
+    <row r="136" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G136" s="26"/>
+    </row>
+    <row r="137" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G137" s="26"/>
+    </row>
+    <row r="138" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G138" s="26"/>
+    </row>
+    <row r="139" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="26"/>
+    </row>
+    <row r="140" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G140" s="26"/>
+    </row>
+    <row r="141" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G141" s="26"/>
+    </row>
+    <row r="142" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G142" s="26"/>
+    </row>
+    <row r="143" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G143" s="26"/>
+    </row>
+    <row r="144" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G144" s="26"/>
+    </row>
+    <row r="145" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="26"/>
+    </row>
+    <row r="146" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G146" s="26"/>
+    </row>
+    <row r="147" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G147" s="26"/>
+    </row>
+    <row r="148" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="26"/>
+    </row>
+    <row r="149" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="26"/>
+    </row>
+    <row r="150" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="26"/>
+    </row>
+    <row r="151" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="26"/>
+    </row>
+    <row r="152" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="26"/>
+    </row>
+    <row r="153" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="26"/>
+    </row>
+    <row r="154" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G154" s="26"/>
+    </row>
+    <row r="155" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G155" s="26"/>
+    </row>
+    <row r="156" spans="7:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="26"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G157" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="G6:G86"/>
+  <autoFilter ref="G6:G86" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="C86:E86"/>
     <mergeCell ref="C6:E6"/>
@@ -3983,19 +3618,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="57.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -4012,7 +3647,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -4025,7 +3660,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -4040,7 +3675,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -4055,7 +3690,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -4070,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -4087,7 +3722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -4104,27 +3739,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -4139,7 +3774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -4154,7 +3789,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -4171,7 +3806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -4186,7 +3821,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -4199,12 +3834,12 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -4218,17 +3853,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -4242,7 +3877,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -4259,7 +3894,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -4273,7 +3908,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -4287,7 +3922,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -4301,17 +3936,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -4328,7 +3963,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -4345,7 +3980,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -4362,7 +3997,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -4379,27 +4014,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>171</v>
       </c>
@@ -4416,7 +4051,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>172</v>
       </c>
@@ -4433,7 +4068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>173</v>
       </c>
@@ -4450,7 +4085,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -4467,7 +4102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -4484,7 +4119,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>176</v>
       </c>
@@ -4501,17 +4136,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -4525,7 +4160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -4542,12 +4177,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -4564,12 +4199,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>184</v>
       </c>
@@ -4583,7 +4218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -4597,7 +4232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -4608,12 +4243,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>188</v>
       </c>
@@ -4630,7 +4265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -4644,12 +4279,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -4666,7 +4301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>192</v>
       </c>

--- a/Bioinformatics/Samples_RNAsep1.xlsx
+++ b/Bioinformatics/Samples_RNAsep1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A6DBFE-C20F-6A41-9F4F-603F918319E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D81428-7B33-574A-9B0B-EFF23F961A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1315,10 +1315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1357,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>37</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1378,7 @@
       <c r="E7" s="36"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>193</v>
       </c>
@@ -1464,7 +1465,7 @@
       </c>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>148</v>
       </c>
@@ -1517,7 +1518,7 @@
       </c>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>140</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>238688611</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>139</v>
       </c>
@@ -1617,7 +1618,7 @@
       </c>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>142</v>
       </c>
@@ -1669,7 +1670,7 @@
       </c>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>143</v>
       </c>
@@ -1719,7 +1720,7 @@
       </c>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>141</v>
       </c>
@@ -1767,7 +1768,7 @@
       </c>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>150</v>
       </c>
@@ -1819,7 +1820,7 @@
       </c>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>151</v>
       </c>
@@ -1867,7 +1868,7 @@
       </c>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>149</v>
       </c>
@@ -1945,7 +1946,7 @@
       </c>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>154</v>
       </c>
@@ -1963,7 +1964,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>129</v>
       </c>
@@ -1976,11 +1977,11 @@
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37" t="s">
         <v>41</v>
       </c>
@@ -1989,7 +1990,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>193</v>
       </c>
@@ -2038,7 +2039,7 @@
       </c>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>175</v>
       </c>
@@ -2090,7 +2091,7 @@
       </c>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>174</v>
       </c>
@@ -2142,7 +2143,7 @@
       </c>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>176</v>
       </c>
@@ -2194,7 +2195,7 @@
       </c>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>179</v>
       </c>
@@ -2242,7 +2243,7 @@
       </c>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>180</v>
       </c>
@@ -2294,7 +2295,7 @@
       </c>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>182</v>
       </c>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>185</v>
       </c>
@@ -2394,7 +2395,7 @@
       </c>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>184</v>
       </c>
@@ -2472,7 +2473,7 @@
       </c>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>188</v>
       </c>
@@ -2524,7 +2525,7 @@
       </c>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>189</v>
       </c>
@@ -2572,7 +2573,7 @@
       </c>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>191</v>
       </c>
@@ -2594,7 +2595,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>129</v>
       </c>
@@ -2607,11 +2608,11 @@
       <c r="I58" s="5"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I59" s="5"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36" t="s">
         <v>84</v>
       </c>
@@ -2620,7 +2621,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C61" s="7" t="s">
         <v>38</v>
       </c>
@@ -2666,7 +2667,7 @@
       </c>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>157</v>
       </c>
@@ -2714,7 +2715,7 @@
       </c>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>158</v>
       </c>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>159</v>
       </c>
@@ -2814,7 +2815,7 @@
       </c>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>160</v>
       </c>
@@ -2862,7 +2863,7 @@
       </c>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>161</v>
       </c>
@@ -2908,7 +2909,7 @@
       </c>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>164</v>
       </c>
@@ -2960,7 +2961,7 @@
       </c>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>165</v>
       </c>
@@ -3012,7 +3013,7 @@
       </c>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>166</v>
       </c>
@@ -3062,7 +3063,7 @@
       </c>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>167</v>
       </c>
@@ -3114,7 +3115,7 @@
       </c>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>171</v>
       </c>
@@ -3166,7 +3167,7 @@
       </c>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>172</v>
       </c>
@@ -3218,7 +3219,7 @@
       </c>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>173</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>129</v>
       </c>
@@ -3602,7 +3603,13 @@
       <c r="G157" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="G6:G86" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="G6:G86" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="AHLWWLBBXX"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="C86:E86"/>
     <mergeCell ref="C6:E6"/>

--- a/Bioinformatics/Samples_RNAsep1.xlsx
+++ b/Bioinformatics/Samples_RNAsep1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D81428-7B33-574A-9B0B-EFF23F961A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED9661-74D8-0A46-B46C-B9E123FCB283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9980" yWindow="-28140" windowWidth="23700" windowHeight="26280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="237">
   <si>
     <t>Ag773_GAATTCGT-TAAGATTA-AHMNN3BBXX_L008_R2.fastq.gz</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>Missing R1 only</t>
+  </si>
+  <si>
+    <t>used for assembly</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -843,6 +846,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -982,9 +991,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1010,6 +1016,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1319,7 +1348,7 @@
   <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1359,7 @@
     <col min="5" max="5" width="64.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -1341,6 +1370,9 @@
       <c r="C2" s="22" t="s">
         <v>232</v>
       </c>
+      <c r="E2" s="43" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="23" t="s">
@@ -1358,24 +1390,24 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="H6" t="s">
         <v>229</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:13" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1400,70 +1432,70 @@
       <c r="H8" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>231</v>
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+    <row r="9" spans="1:13" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="44">
         <v>7090738</v>
       </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:13" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="44">
         <v>6990608</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1508,15 +1540,15 @@
       <c r="H12" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <v>5774224</v>
       </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="30">
+      <c r="K12" s="29">
         <f>AVERAGE(I9:I84)</f>
         <v>6630239.194444444</v>
       </c>
-      <c r="M12" s="30"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1536,36 +1568,36 @@
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+    <row r="14" spans="1:13" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
         <v>4</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="44">
         <v>6614731</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="30">
+      <c r="J14" s="42"/>
+      <c r="K14" s="44">
         <f>SUM(I9:I84)</f>
         <v>238688611</v>
       </c>
@@ -1613,7 +1645,7 @@
       <c r="H16" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="29">
         <v>7611600</v>
       </c>
       <c r="J16" s="20"/>
@@ -1640,35 +1672,35 @@
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+    <row r="18" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
         <v>6</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="44">
         <v>6810042</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1715,7 +1747,7 @@
       <c r="H20" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="29">
         <v>6112968</v>
       </c>
       <c r="J20" s="20"/>
@@ -1763,7 +1795,7 @@
       <c r="H22" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <v>10524113</v>
       </c>
       <c r="J22" s="20"/>
@@ -1790,35 +1822,35 @@
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="24" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
         <v>9</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="44">
         <v>7208739</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1838,35 +1870,35 @@
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+    <row r="26" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
         <v>10</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="44">
         <v>6297477</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -1911,7 +1943,7 @@
       <c r="H28" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="29">
         <v>6739482</v>
       </c>
       <c r="J28" s="20"/>
@@ -1941,7 +1973,7 @@
       <c r="H29" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="29">
         <v>6849404</v>
       </c>
       <c r="J29" s="20"/>
@@ -1968,11 +2000,11 @@
       <c r="B31" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="3"/>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
@@ -1982,11 +2014,11 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
     </row>
@@ -2009,35 +2041,35 @@
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+    <row r="35" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
         <v>13</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="44">
         <v>8109073</v>
       </c>
-      <c r="J35" s="20"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -2086,12 +2118,12 @@
       <c r="H37" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="29">
         <v>7502839</v>
       </c>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>174</v>
       </c>
@@ -2113,35 +2145,35 @@
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+    <row r="39" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
         <v>15</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="44">
         <v>6278820</v>
       </c>
-      <c r="J39" s="20"/>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -2190,7 +2222,7 @@
       <c r="H41" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="29">
         <v>6904610</v>
       </c>
       <c r="J41" s="20"/>
@@ -2238,7 +2270,7 @@
       <c r="H43" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="29">
         <v>6392162</v>
       </c>
       <c r="J43" s="20"/>
@@ -2265,35 +2297,35 @@
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+    <row r="45" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="37">
         <v>18</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I45" s="30">
+      <c r="I45" s="44">
         <v>6286856</v>
       </c>
-      <c r="J45" s="20"/>
+      <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2317,35 +2349,35 @@
       <c r="I46" s="5"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+    <row r="47" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="37">
         <v>19</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="44">
         <v>6753411</v>
       </c>
-      <c r="J47" s="20"/>
+      <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -2390,7 +2422,7 @@
       <c r="H49" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="29">
         <v>5900585</v>
       </c>
       <c r="J49" s="20"/>
@@ -2438,7 +2470,7 @@
       <c r="H51" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="29">
         <v>7848155</v>
       </c>
       <c r="J51" s="20"/>
@@ -2468,7 +2500,7 @@
       <c r="H52" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="29">
         <v>6837461</v>
       </c>
       <c r="J52" s="20"/>
@@ -2495,35 +2527,35 @@
       <c r="I53" s="5"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+    <row r="54" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
         <v>23</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I54" s="44">
         <v>6901680</v>
       </c>
-      <c r="J54" s="6"/>
+      <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -2543,35 +2575,35 @@
       <c r="I55" s="5"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+    <row r="56" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="37">
         <v>24</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="G56" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I56" s="31">
+      <c r="I56" s="41">
         <v>6643431</v>
       </c>
-      <c r="J56" s="20"/>
+      <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -2599,11 +2631,11 @@
       <c r="B58" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="3"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6"/>
@@ -2613,11 +2645,11 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
       <c r="I60" s="5"/>
       <c r="J60" s="6"/>
     </row>
@@ -2637,35 +2669,35 @@
       <c r="I61" s="5"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+    <row r="62" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="37">
         <v>25</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I62" s="31">
+      <c r="I62" s="41">
         <v>6241591</v>
       </c>
-      <c r="J62" s="20"/>
+      <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -2710,12 +2742,12 @@
       <c r="H64" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I64" s="31">
+      <c r="I64" s="30">
         <v>5888898</v>
       </c>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>158</v>
       </c>
@@ -2737,35 +2769,35 @@
       <c r="I65" s="5"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+    <row r="66" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="37">
         <v>27</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I66" s="31">
+      <c r="I66" s="41">
         <v>5693053</v>
       </c>
-      <c r="J66" s="20"/>
+      <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
@@ -2810,7 +2842,7 @@
       <c r="H68" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I68" s="31">
+      <c r="I68" s="30">
         <v>5486243</v>
       </c>
       <c r="J68" s="20"/>
@@ -2858,7 +2890,7 @@
       <c r="H70" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I70" s="31">
+      <c r="I70" s="30">
         <v>5057357</v>
       </c>
       <c r="J70" s="20"/>
@@ -2879,35 +2911,35 @@
       <c r="I71" s="5"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+    <row r="72" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="37">
         <v>30</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="G72" s="21" t="s">
+      <c r="G72" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I72" s="31">
+      <c r="I72" s="41">
         <v>5866448</v>
       </c>
-      <c r="J72" s="20"/>
+      <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
@@ -2956,7 +2988,7 @@
       <c r="H74" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I74" s="31">
+      <c r="I74" s="30">
         <v>6669935</v>
       </c>
       <c r="J74" s="20"/>
@@ -3008,7 +3040,7 @@
       <c r="H76" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I76" s="31">
+      <c r="I76" s="30">
         <v>5985732</v>
       </c>
       <c r="J76" s="20"/>
@@ -3033,35 +3065,35 @@
       <c r="I77" s="5"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
+    <row r="78" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="37">
         <v>33</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="G78" s="21" t="s">
+      <c r="G78" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I78" s="31">
+      <c r="I78" s="41">
         <v>6145087</v>
       </c>
-      <c r="J78" s="20"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
@@ -3110,7 +3142,7 @@
       <c r="H80" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="I80" s="31">
+      <c r="I80" s="30">
         <v>6274678</v>
       </c>
       <c r="J80" s="20"/>
@@ -3137,35 +3169,35 @@
       <c r="I81" s="5"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
+    <row r="82" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="37">
         <v>35</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="G82" s="21" t="s">
+      <c r="G82" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I82" s="31">
+      <c r="I82" s="41">
         <v>6636181</v>
       </c>
-      <c r="J82" s="20"/>
+      <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
@@ -3189,35 +3221,35 @@
       <c r="I83" s="5"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="1:10" s="16" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
+    <row r="84" spans="1:10" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="37">
         <v>36</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="G84" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I84" s="31">
+      <c r="I84" s="41">
         <v>5760199</v>
       </c>
-      <c r="J84" s="20"/>
+      <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
@@ -3245,25 +3277,25 @@
       <c r="B86" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="3"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6"/>
     </row>
     <row r="87" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I87" s="32"/>
+      <c r="I87" s="31"/>
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I88" s="33"/>
+      <c r="I88" s="32"/>
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I89" s="33"/>
+      <c r="I89" s="32"/>
       <c r="J89" s="6"/>
     </row>
     <row r="90" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3271,7 +3303,7 @@
       <c r="E90" s="26"/>
       <c r="F90" s="9"/>
       <c r="G90" s="26"/>
-      <c r="I90" s="33"/>
+      <c r="I90" s="32"/>
       <c r="J90" s="6"/>
     </row>
     <row r="91" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3279,7 +3311,7 @@
       <c r="E91" s="26"/>
       <c r="F91" s="9"/>
       <c r="G91" s="26"/>
-      <c r="I91" s="33"/>
+      <c r="I91" s="32"/>
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3287,7 +3319,7 @@
       <c r="E92" s="26"/>
       <c r="F92" s="9"/>
       <c r="G92" s="26"/>
-      <c r="I92" s="33"/>
+      <c r="I92" s="32"/>
       <c r="J92" s="6"/>
     </row>
     <row r="93" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3295,7 +3327,7 @@
       <c r="E93" s="26"/>
       <c r="F93" s="9"/>
       <c r="G93" s="26"/>
-      <c r="I93" s="33"/>
+      <c r="I93" s="32"/>
       <c r="J93" s="6"/>
     </row>
     <row r="94" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3303,7 +3335,7 @@
       <c r="E94" s="26"/>
       <c r="F94" s="9"/>
       <c r="G94" s="26"/>
-      <c r="I94" s="33"/>
+      <c r="I94" s="32"/>
       <c r="J94" s="6"/>
     </row>
     <row r="95" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3311,7 +3343,7 @@
       <c r="E95" s="26"/>
       <c r="F95" s="9"/>
       <c r="G95" s="26"/>
-      <c r="I95" s="33"/>
+      <c r="I95" s="32"/>
       <c r="J95" s="6"/>
     </row>
     <row r="96" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3319,7 +3351,7 @@
       <c r="E96" s="26"/>
       <c r="F96" s="9"/>
       <c r="G96" s="26"/>
-      <c r="I96" s="33"/>
+      <c r="I96" s="32"/>
       <c r="J96" s="6"/>
     </row>
     <row r="97" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3327,7 +3359,7 @@
       <c r="E97" s="26"/>
       <c r="F97" s="9"/>
       <c r="G97" s="26"/>
-      <c r="I97" s="33"/>
+      <c r="I97" s="32"/>
       <c r="J97" s="6"/>
     </row>
     <row r="98" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3335,7 +3367,7 @@
       <c r="E98" s="26"/>
       <c r="F98" s="9"/>
       <c r="G98" s="26"/>
-      <c r="I98" s="33"/>
+      <c r="I98" s="32"/>
       <c r="J98" s="6"/>
     </row>
     <row r="99" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3343,7 +3375,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="26"/>
-      <c r="I99" s="33"/>
+      <c r="I99" s="32"/>
       <c r="J99" s="6"/>
     </row>
     <row r="100" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3351,7 +3383,7 @@
       <c r="E100" s="26"/>
       <c r="F100" s="9"/>
       <c r="G100" s="26"/>
-      <c r="I100" s="33"/>
+      <c r="I100" s="32"/>
       <c r="J100" s="6"/>
     </row>
     <row r="101" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3359,7 +3391,7 @@
       <c r="E101" s="26"/>
       <c r="F101" s="9"/>
       <c r="G101" s="26"/>
-      <c r="I101" s="33"/>
+      <c r="I101" s="32"/>
       <c r="J101" s="6"/>
     </row>
     <row r="102" spans="4:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
